--- a/biology/Botanique/Entente_florale_Europe/Entente_florale_Europe.xlsx
+++ b/biology/Botanique/Entente_florale_Europe/Entente_florale_Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Entente florale Europe ([ɑ̃.tɑ̃t flɔʁal ø.ʁɔp], Flowery Alliance of Europe) est un concours international horticole créé pour les communes et les villages d'Europe connus pour l'excellence de leurs fleurissements. Des trophées sont décernés chaque année par les offices de tourisme et les sociétés horticoles des pays européens. Il existe trois catégories :
 "Grandes villes" (population de plus de 30 000)
 "Villes moyennes" (population de 5 000 à 30 000)
-"Petites villes et villages" (population inférieure à 5 000)[1].
+"Petites villes et villages" (population inférieure à 5 000).
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Entente florale Europe est un concours de villes et villages. Le nom du concours fait référence à l'Entente cordiale (Friendly Understanding, 1904). Chaque pays participant propose une ville et un village représentatifs. La ville et le village sont visités par le jury pour une évaluation. Le concours a été fondé en 1975, initialement entre la Grande-Bretagne et la France. À l'heure actuelle, onze pays en sont membres et d'autres demandes sont en cours de traitement[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Entente florale Europe est un concours de villes et villages. Le nom du concours fait référence à l'Entente cordiale (Friendly Understanding, 1904). Chaque pays participant propose une ville et un village représentatifs. La ville et le village sont visités par le jury pour une évaluation. Le concours a été fondé en 1975, initialement entre la Grande-Bretagne et la France. À l'heure actuelle, onze pays en sont membres et d'autres demandes sont en cours de traitement.
 En 1996, une association internationale sans but lucratif (AISBL) a été fondée sous le nom de Association européenne pour le fleurissement et le paysage, avec pour responsabilité l'organisation générale de la compétition et obtenir le soutien des instances officielles des différents pays. L'AEFP est constituée en vertu de la loi belge du 8 septembre 1997, les statuts ont été publiés au Moniteur belge le 8 septembre 1998. Les statuts modifiés, par la loi du 2 mai 2002, ont été publiés au Moniteur belge le 28 avril 2006.
 Depuis 1998, sous l'égide de l'Association européenne pour le fleurissement et le paysage, l'association et le concours Entente florale Europe sont ouverts à tous les pays de l'Union européenne ainsi qu'aux membres de l'AELE (Association européenne de libre-échange).
 Le concours bénéficie du soutien de l'Association internationale des producteurs horticoles (AIPH) depuis sa création. Dans chaque pays, le concours est soutenu et organisé par les ministères/départements de l'agriculture, du tourisme, ainsi que des organismes et associations horticoles.
@@ -549,7 +563,9 @@
           <t>Participation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Qui peut participer ?
 Le concours est ouvert à tous les pays de l'Union européenne et de l'AELE sous réserve d'approbation par le conseil d'administration de l'AEFP. Trois catégories sont représentées, chaque pays membre peut présenter deux candidats de deux catégories différentes.
@@ -587,7 +603,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Qui organise le Concours ?
 L'organisation générale est assurée par l'Association européenne du fleurissement et du paysage (AEFP).
@@ -633,7 +651,9 @@
           <t>Membres du jury en 2015</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Autriche (AT)
 Martin Wagner, ingénieur en horticulture ; vice-président du jury
@@ -671,37 +691,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Entente_florale_Europe</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Entente_florale_Europe</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Lauréats[3]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Villes/Cités
-Villages</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
